--- a/data/dwc_columns.xlsx
+++ b/data/dwc_columns.xlsx
@@ -465,17 +465,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>references</t>
+          <t>rightsHolder</t>
         </is>
       </c>
       <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rightsHolder</t>
+          <t>institutionID</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -488,7 +491,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>institutionID</t>
+          <t>institutionCode</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -501,20 +504,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>institutionCode</t>
+          <t>dynamicProperties</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dynamicProperties</t>
+          <t>informationWithheld</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -524,17 +524,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>informationWithheld</t>
+          <t>occurrenceID</t>
         </is>
       </c>
       <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>occurrenceID</t>
+          <t>occurrenceStatus</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -547,7 +550,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>occurrenceStatus</t>
+          <t>individualCount</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -560,7 +563,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>individualCount</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -573,43 +576,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>lifeStage</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lifeStage</t>
+          <t>recordedBy</t>
         </is>
       </c>
       <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>recordedBy</t>
+          <t>occurrenceRemarks</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occurrenceRemarks</t>
+          <t>associatedReferences</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -619,17 +619,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>associatedReferences</t>
+          <t>eventDate</t>
         </is>
       </c>
       <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eventDate</t>
+          <t>verbatimEventDate</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -642,7 +645,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>verbatimEventDate</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -655,7 +658,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>samplingProtocol</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -668,7 +671,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>samplingProtocol</t>
+          <t>eventRemarks</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -681,7 +684,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eventRemarks</t>
+          <t>continent</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -694,7 +697,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>continent</t>
+          <t>countryCode</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -707,7 +710,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>countryCode</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -720,30 +723,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>verbatimLocality</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>verbatimLocality</t>
+          <t>verbatimCoordinates</t>
         </is>
       </c>
       <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>verbatimCoordinates</t>
+          <t>decimalLatitude</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -756,7 +759,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>decimalLatitude</t>
+          <t>decimalLongitude</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -769,7 +772,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>decimalLongitude</t>
+          <t>geodeticDatum</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -782,7 +785,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>geodeticDatum</t>
+          <t>coordinateUncertaintyInMeters</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -795,7 +798,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>coordinateUncertaintyInMeters</t>
+          <t>georeferencedBy</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -808,7 +811,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>georeferencedBy</t>
+          <t>georeferencedDate</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -821,7 +824,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>georeferencedDate</t>
+          <t>minimumElevationInMeters</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -834,7 +837,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>minimumElevationInMeters</t>
+          <t>maximumElevationInMeters</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -847,7 +850,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>maximumElevationInMeters</t>
+          <t>kingdom</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -860,7 +863,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kingdom</t>
+          <t>phylum</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -873,7 +876,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>phylum</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -886,7 +889,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>order</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -899,7 +902,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -912,7 +915,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>genus</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -925,7 +928,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>genus</t>
+          <t>scientificName</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -938,53 +941,53 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>scientificName</t>
+          <t>verbatimIdentification</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>acceptedNameUsage</t>
+          <t>taxonRank</t>
         </is>
       </c>
       <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>taxonRank</t>
+          <t>typeStatus</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>typeStatus</t>
+          <t>identifiedBy</t>
         </is>
       </c>
       <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>identifiedBy</t>
+          <t>dateIdentified</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -997,7 +1000,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dateIdentified</t>
+          <t>taxonRemarks</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1010,11 +1013,8 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>taxonRemarks</t>
-        </is>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
+          <t>recordNumber</t>
+        </is>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>recordNumber</t>
+          <t>collectionCode</t>
         </is>
       </c>
       <c r="C54" t="b">

--- a/data/dwc_columns.xlsx
+++ b/data/dwc_columns.xlsx
@@ -465,20 +465,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rightsHolder</t>
+          <t>references</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>institutionID</t>
+          <t>rightsHolder</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -491,7 +488,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>institutionCode</t>
+          <t>institutionID</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -504,17 +501,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dynamicProperties</t>
+          <t>institutionCode</t>
         </is>
       </c>
       <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>informationWithheld</t>
+          <t>dynamicProperties</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -675,9 +675,6 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/dwc_columns.xlsx
+++ b/data/dwc_columns.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,7 +599,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occurrenceRemarks</t>
+          <t>catalogNumber</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -609,7 +609,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>associatedReferences</t>
+          <t>occurrenceRemarks</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -619,20 +619,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eventDate</t>
+          <t>associatedReferences</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>verbatimEventDate</t>
+          <t>eventDate</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -645,7 +642,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>verbatimEventDate</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -658,7 +655,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>samplingProtocol</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -671,30 +668,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>eventRemarks</t>
+          <t>samplingProtocol</t>
         </is>
       </c>
       <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>continent</t>
+          <t>eventRemarks</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>countryCode</t>
+          <t>continent</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -707,7 +704,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>countryCode</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -720,30 +717,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>verbatimLocality</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>verbatimCoordinates</t>
+          <t>verbatimLocality</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>decimalLatitude</t>
+          <t>verbatimCoordinates</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -756,7 +753,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>decimalLongitude</t>
+          <t>decimalLatitude</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -769,7 +766,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>geodeticDatum</t>
+          <t>decimalLongitude</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -782,7 +779,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>coordinateUncertaintyInMeters</t>
+          <t>geodeticDatum</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -795,7 +792,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>georeferencedBy</t>
+          <t>coordinateUncertaintyInMeters</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -808,7 +805,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>georeferencedDate</t>
+          <t>georeferencedBy</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -821,7 +818,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>minimumElevationInMeters</t>
+          <t>georeferencedDate</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -834,7 +831,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>maximumElevationInMeters</t>
+          <t>minimumElevationInMeters</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -847,7 +844,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kingdom</t>
+          <t>maximumElevationInMeters</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -860,7 +857,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>phylum</t>
+          <t>kingdom</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -873,7 +870,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>phylum</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -886,7 +883,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -899,7 +896,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>order</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -912,7 +909,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>genus</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -925,7 +922,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>scientificName</t>
+          <t>genus</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -938,53 +935,53 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>verbatimIdentification</t>
+          <t>scientificName</t>
         </is>
       </c>
       <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>taxonRank</t>
+          <t>verbatimIdentification</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>typeStatus</t>
+          <t>taxonRank</t>
         </is>
       </c>
       <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>identifiedBy</t>
+          <t>typeStatus</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dateIdentified</t>
+          <t>identifiedBy</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -997,7 +994,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>taxonRemarks</t>
+          <t>dateIdentified</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -1010,8 +1007,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>recordNumber</t>
-        </is>
+          <t>taxonRemarks</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1020,7 +1020,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>collectionCode</t>
+          <t>recordNumber</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -1030,7 +1030,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lifestage</t>
+          <t>collectionCode</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -1040,7 +1040,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>lifestage</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -1050,7 +1050,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -1060,7 +1060,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1070,7 +1070,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>month</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -1080,7 +1080,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>fieldNumber</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -1090,7 +1090,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stateProvince</t>
+          <t>fieldNumber</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -1100,7 +1100,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>stateProvince</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1110,7 +1110,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>locality</t>
+          <t>county</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -1120,7 +1120,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>locationRemarks</t>
+          <t>locality</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -1130,7 +1130,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>specificEpithet</t>
+          <t>locationRemarks</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>scientificNameAuthorship</t>
+          <t>specificEpithet</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -1150,10 +1150,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>scientificNameAuthorship</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>identificationRemarks</t>
         </is>
       </c>
-      <c r="C67" t="b">
+      <c r="C68" t="b">
         <v>1</v>
       </c>
     </row>
